--- a/output_data/plot_data.xlsx
+++ b/output_data/plot_data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{DFECE7C1-9C9B-D741-9A53-5452412D3882}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{DFECE7C1-9C9B-D741-9A53-5452412D3882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="144">
   <si>
     <t>frame</t>
   </si>
@@ -33,6 +34,429 @@
   </si>
   <si>
     <t>occ</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>-10.0 </t>
+  </si>
+  <si>
+    <t>-9.8 </t>
+  </si>
+  <si>
+    <t>-9.5 </t>
+  </si>
+  <si>
+    <t>-9.2 </t>
+  </si>
+  <si>
+    <t>-9.0 </t>
+  </si>
+  <si>
+    <t>-8.8 </t>
+  </si>
+  <si>
+    <t>-8.5 </t>
+  </si>
+  <si>
+    <t>-8.2 </t>
+  </si>
+  <si>
+    <t>-8.0 </t>
+  </si>
+  <si>
+    <t>-7.8 </t>
+  </si>
+  <si>
+    <t>-7.5 </t>
+  </si>
+  <si>
+    <t>-7.2 </t>
+  </si>
+  <si>
+    <t>-7.0 </t>
+  </si>
+  <si>
+    <t>-6.8 </t>
+  </si>
+  <si>
+    <t>-6.5 </t>
+  </si>
+  <si>
+    <t>-6.2 </t>
+  </si>
+  <si>
+    <t>-6.0 </t>
+  </si>
+  <si>
+    <t>-5.8 </t>
+  </si>
+  <si>
+    <t>-5.5 </t>
+  </si>
+  <si>
+    <t>-5.2 </t>
+  </si>
+  <si>
+    <t>-5.0 </t>
+  </si>
+  <si>
+    <t>-4.8 </t>
+  </si>
+  <si>
+    <t>-4.5 </t>
+  </si>
+  <si>
+    <t>-4.2 </t>
+  </si>
+  <si>
+    <t>-4.0 </t>
+  </si>
+  <si>
+    <t>-3.8 </t>
+  </si>
+  <si>
+    <t>-3.5 </t>
+  </si>
+  <si>
+    <t>-3.2 </t>
+  </si>
+  <si>
+    <t>-3.0 </t>
+  </si>
+  <si>
+    <t>-2.8 </t>
+  </si>
+  <si>
+    <t>-2.5 </t>
+  </si>
+  <si>
+    <t>-2.2 </t>
+  </si>
+  <si>
+    <t>-2.0 </t>
+  </si>
+  <si>
+    <t>-1.8 </t>
+  </si>
+  <si>
+    <t>-1.5 </t>
+  </si>
+  <si>
+    <t>-1.2 </t>
+  </si>
+  <si>
+    <t>-1.0 </t>
+  </si>
+  <si>
+    <t>-0.8 </t>
+  </si>
+  <si>
+    <t>-0.5 </t>
+  </si>
+  <si>
+    <t>9.8 </t>
+  </si>
+  <si>
+    <t>10.0 </t>
+  </si>
+  <si>
+    <t>10.2 </t>
+  </si>
+  <si>
+    <t>10.5 </t>
+  </si>
+  <si>
+    <t>10.8 </t>
+  </si>
+  <si>
+    <t>11.0 </t>
+  </si>
+  <si>
+    <t>11.2 </t>
+  </si>
+  <si>
+    <t>11.5 </t>
+  </si>
+  <si>
+    <t>11.8 </t>
+  </si>
+  <si>
+    <t>12.0 </t>
+  </si>
+  <si>
+    <t>12.2 </t>
+  </si>
+  <si>
+    <t>12.5 </t>
+  </si>
+  <si>
+    <t>12.8 </t>
+  </si>
+  <si>
+    <t>13.0 </t>
+  </si>
+  <si>
+    <t>13.2 </t>
+  </si>
+  <si>
+    <t>13.5 </t>
+  </si>
+  <si>
+    <t>13.8 </t>
+  </si>
+  <si>
+    <t>14.0 </t>
+  </si>
+  <si>
+    <t>14.2 </t>
+  </si>
+  <si>
+    <t>14.5 </t>
+  </si>
+  <si>
+    <t>14.8 </t>
+  </si>
+  <si>
+    <t>15.0 </t>
+  </si>
+  <si>
+    <t>15.2 </t>
+  </si>
+  <si>
+    <t>15.5 </t>
+  </si>
+  <si>
+    <t>15.8 </t>
+  </si>
+  <si>
+    <t>16.0 </t>
+  </si>
+  <si>
+    <t>16.2 </t>
+  </si>
+  <si>
+    <t>16.5 </t>
+  </si>
+  <si>
+    <t>16.8 </t>
+  </si>
+  <si>
+    <t>17.0 </t>
+  </si>
+  <si>
+    <t>17.2 </t>
+  </si>
+  <si>
+    <t>17.5 </t>
+  </si>
+  <si>
+    <t>17.8 </t>
+  </si>
+  <si>
+    <t>18.0 </t>
+  </si>
+  <si>
+    <t>18.2 </t>
+  </si>
+  <si>
+    <t>18.5 </t>
+  </si>
+  <si>
+    <t>18.8 </t>
+  </si>
+  <si>
+    <t>19.0 </t>
+  </si>
+  <si>
+    <t>19.2 </t>
+  </si>
+  <si>
+    <t>19.5 </t>
+  </si>
+  <si>
+    <t>19.8 </t>
+  </si>
+  <si>
+    <t>20.0 </t>
+  </si>
+  <si>
+    <t>20.2 </t>
+  </si>
+  <si>
+    <t>20.5 </t>
+  </si>
+  <si>
+    <t>20.8 </t>
+  </si>
+  <si>
+    <t>21.0 </t>
+  </si>
+  <si>
+    <t>21.2 </t>
+  </si>
+  <si>
+    <t>21.5 </t>
+  </si>
+  <si>
+    <t>21.8 </t>
+  </si>
+  <si>
+    <t>22.0 </t>
+  </si>
+  <si>
+    <t>22.2 </t>
+  </si>
+  <si>
+    <t>22.5 </t>
+  </si>
+  <si>
+    <t>22.8 </t>
+  </si>
+  <si>
+    <t>23.0 </t>
+  </si>
+  <si>
+    <t>23.2 </t>
+  </si>
+  <si>
+    <t>23.5 </t>
+  </si>
+  <si>
+    <t>23.8 </t>
+  </si>
+  <si>
+    <t>24.0 </t>
+  </si>
+  <si>
+    <t>24.2 </t>
+  </si>
+  <si>
+    <t>24.5 </t>
+  </si>
+  <si>
+    <t>24.8 </t>
+  </si>
+  <si>
+    <t>25.0 </t>
+  </si>
+  <si>
+    <t>25.2 </t>
+  </si>
+  <si>
+    <t>25.5 </t>
+  </si>
+  <si>
+    <t>25.8 </t>
+  </si>
+  <si>
+    <t>26.0 </t>
+  </si>
+  <si>
+    <t>26.2 </t>
+  </si>
+  <si>
+    <t>26.5 </t>
+  </si>
+  <si>
+    <t>26.8 </t>
+  </si>
+  <si>
+    <t>27.0 </t>
+  </si>
+  <si>
+    <t>27.2 </t>
+  </si>
+  <si>
+    <t>27.5 </t>
+  </si>
+  <si>
+    <t>27.8 </t>
+  </si>
+  <si>
+    <t>28.0 </t>
+  </si>
+  <si>
+    <t>28.2 </t>
+  </si>
+  <si>
+    <t>28.5 </t>
+  </si>
+  <si>
+    <t>28.8 </t>
+  </si>
+  <si>
+    <t>29.0 </t>
+  </si>
+  <si>
+    <t>29.2 </t>
+  </si>
+  <si>
+    <t>29.5 </t>
+  </si>
+  <si>
+    <t>29.8 </t>
+  </si>
+  <si>
+    <t>30.0 </t>
+  </si>
+  <si>
+    <t>30.2 </t>
+  </si>
+  <si>
+    <t>30.5 </t>
+  </si>
+  <si>
+    <t>30.8 </t>
+  </si>
+  <si>
+    <t>31.0 </t>
+  </si>
+  <si>
+    <t>31.2 </t>
+  </si>
+  <si>
+    <t>31.5 </t>
+  </si>
+  <si>
+    <t>31.8 </t>
+  </si>
+  <si>
+    <t>32.0 </t>
+  </si>
+  <si>
+    <t>32.2 </t>
+  </si>
+  <si>
+    <t>32.5 </t>
+  </si>
+  <si>
+    <t>32.8 </t>
+  </si>
+  <si>
+    <t>33.0 </t>
+  </si>
+  <si>
+    <t>33.2 </t>
+  </si>
+  <si>
+    <t>33.5 </t>
+  </si>
+  <si>
+    <t>33.8 </t>
+  </si>
+  <si>
+    <t>34.0 </t>
+  </si>
+  <si>
+    <t>34.2 </t>
+  </si>
+  <si>
+    <t>34.5 </t>
+  </si>
+  <si>
+    <t>Ca++</t>
   </si>
 </sst>
 </file>
@@ -372,6 +796,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>frame</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -436,6 +916,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1"/>
+                  <a:t>energy kCal/mol</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -523,7 +1058,2290 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ca++ titration curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ca++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$342</c:f>
+              <c:strCache>
+                <c:ptCount val="340"/>
+                <c:pt idx="0">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-39.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-39.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-39.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-38.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-38.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-38.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-37.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-37.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-37.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-36.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-36.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-36.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-35.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-35.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-35.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-34.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-34.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-34.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-33.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-33.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-33.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-32.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-32.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-32.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-31.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-31.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-31.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-30.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-30.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-30.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-29.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-29.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-29.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-28.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-28.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-28.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-27.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-27.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-27.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-26.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-26.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-26.2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-25.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-25.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-25.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-24.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-24.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-24.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-23.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-23.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-23.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-22.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-22.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-21.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-21.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-21.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-20.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-20.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-20.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-19.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-19.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-19.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-18.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-18.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-18.2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-17.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-17.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-17.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-16.8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-16.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-16.2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-15.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-15.2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-14.8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-14.2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-13.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-13.2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-12.8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-12.2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-11.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-11.2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-10.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-10.2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-10.0 </c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-9.8 </c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-9.5 </c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-9.2 </c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-9.0 </c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-8.8 </c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-8.5 </c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-8.2 </c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-8.0 </c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-7.8 </c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-7.5 </c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-7.2 </c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-7.0 </c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-6.8 </c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-6.5 </c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-6.2 </c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-6.0 </c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-5.8 </c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-5.5 </c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-5.2 </c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-5.0 </c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-4.8 </c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-4.5 </c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-4.2 </c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-4.0 </c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-3.8 </c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-3.5 </c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-3.2 </c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-3.0 </c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-2.8 </c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.5 </c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2.2 </c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.0 </c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.8 </c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.5 </c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.2 </c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1.0 </c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.8 </c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.5 </c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>8.2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9.8 </c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>10.0 </c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>10.2 </c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>10.5 </c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>10.8 </c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>11.0 </c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>11.2 </c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>11.5 </c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11.8 </c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12.0 </c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12.2 </c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>12.5 </c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12.8 </c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>13.0 </c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>13.2 </c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>13.5 </c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>13.8 </c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>14.0 </c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>14.2 </c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>14.5 </c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>14.8 </c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>15.0 </c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>15.2 </c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>15.5 </c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>15.8 </c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>16.0 </c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>16.2 </c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>16.5 </c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>16.8 </c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>17.0 </c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>17.2 </c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>17.5 </c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>17.8 </c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>18.0 </c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>18.2 </c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>18.5 </c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>18.8 </c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>19.0 </c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>19.2 </c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>19.5 </c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>19.8 </c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>20.0 </c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>20.2 </c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>20.5 </c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>20.8 </c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>21.0 </c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>21.2 </c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>21.5 </c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>21.8 </c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>22.0 </c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>22.2 </c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>22.5 </c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>22.8 </c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>23.0 </c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>23.2 </c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>23.5 </c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>23.8 </c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>24.0 </c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>24.2 </c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>24.5 </c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>24.8 </c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>25.0 </c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>25.2 </c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>25.5 </c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>25.8 </c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>26.0 </c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>26.2 </c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>26.5 </c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>26.8 </c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>27.0 </c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>27.2 </c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>27.5 </c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>27.8 </c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>28.0 </c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>28.2 </c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>28.5 </c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>28.8 </c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>29.0 </c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>29.2 </c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>29.5 </c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>29.8 </c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>30.0 </c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>30.2 </c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>30.5 </c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>30.8 </c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>31.0 </c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>31.2 </c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>31.5 </c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>31.8 </c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>32.0 </c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>32.2 </c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>32.5 </c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>32.8 </c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>33.0 </c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>33.2 </c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>33.5 </c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>33.8 </c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>34.0 </c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>34.2 </c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>34.5 </c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>34.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$342</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="341"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D72-0440-B17C-C3A1ADB031C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="263427471"/>
+        <c:axId val="321565519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="263427471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321565519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="321565519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263427471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1066,6 +3884,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1087,6 +4421,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0EDFF9-D84C-4242-A51D-DC1333D2FE13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28CDF3E-B921-C44B-8A27-54ADF2DD9828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,8 +4781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E070E7-0590-B949-8436-2F4BC3DFD40C}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1911,4 +5286,2628 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795558C-6188-874E-9514-3B33A4BF11FB}">
+  <dimension ref="A1:B341"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-40</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-39.5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-39</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-38.5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-38</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-37.5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-37</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-36.5</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-36</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-35.5</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-35</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-34.5</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-34</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-33.5</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-33</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-32.5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-31.8</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-31.5</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>-31.2</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-31</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>-30.8</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>-30.5</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>-30.2</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>-30</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>-29.8</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>-29.5</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>-29.2</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>-29</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>-28.8</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>-28.5</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>-28.2</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>-28</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>-27.8</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>-27.5</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>-27.2</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>-27</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>-26.8</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>-26.5</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>-26.2</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>-26</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>-25.8</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>-25.5</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>-25.2</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>-25</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>-24.8</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>-24.5</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>-24.2</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>-24</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>-23.8</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>-23.5</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>-23.2</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>-23</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>-22.8</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>-22.5</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>-22.2</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>-22</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>-21.8</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>-21.5</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>-21.2</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>-21</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>-20.8</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>-20.5</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>-20.2</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>-20</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>-19.8</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>-19.5</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>-19.2</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>-19</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>-18.8</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>-18.5</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>-18.2</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>-18</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>-17.8</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>-17.5</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>-17.2</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>-17</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>-16.8</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>-16.5</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>-16.2</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>-16</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>-15.8</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>-15.5</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>-15.2</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>-15</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>-14.8</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>-14.5</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>-14.2</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>-14</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>-13.8</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>-13.5</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>-13.2</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>-13</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>-12.8</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>-12.5</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>-12.2</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>-12</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>-11.8</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>-11.5</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>-11.2</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>-11</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>-10.8</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>-10.5</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>29</v>
+      </c>
+      <c r="B147">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>35</v>
+      </c>
+      <c r="B153">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>36</v>
+      </c>
+      <c r="B154">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>38</v>
+      </c>
+      <c r="B156">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>41</v>
+      </c>
+      <c r="B159">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>42</v>
+      </c>
+      <c r="B160">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>-0.2</v>
+      </c>
+      <c r="B161">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>0.2</v>
+      </c>
+      <c r="B165">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>0.5</v>
+      </c>
+      <c r="B167">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>0.8</v>
+      </c>
+      <c r="B169">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1.2</v>
+      </c>
+      <c r="B173">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>1.5</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1.8</v>
+      </c>
+      <c r="B177">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>2.5</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>2.8</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>3</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>3.2</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>3.5</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>3.8</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>4.2</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>4.5</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>4.8</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>3</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>5</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>5.2</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>5.5</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>5.8</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>6</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>6.2</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>3</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>6.5</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>3</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>6.8</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>7</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>3</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>7.2</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>7.5</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>7.8</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>8</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>8.5</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>3</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>9</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>9.5</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>3</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>43</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>44</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>45</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>46</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>47</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>48</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>49</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>50</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>51</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>52</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>53</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>54</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>55</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>56</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>57</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>58</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>59</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>60</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>61</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>62</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>63</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>64</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>65</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>66</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>67</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>68</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>69</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>70</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>71</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>72</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>73</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>74</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>75</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>76</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>77</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>78</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>79</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>80</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>81</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>82</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>83</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>84</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>85</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>86</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>87</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>88</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>89</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>90</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>91</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>92</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>93</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>94</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>95</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>96</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>97</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>98</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>99</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>100</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>101</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>102</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>103</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/output_data/plot_data.xlsx
+++ b/output_data/plot_data.xlsx
@@ -15,6 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$2:$A$342</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$2:$B$342</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>frame</t>
   </si>
@@ -34,429 +39,6 @@
   </si>
   <si>
     <t>occ</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>-10.0 </t>
-  </si>
-  <si>
-    <t>-9.8 </t>
-  </si>
-  <si>
-    <t>-9.5 </t>
-  </si>
-  <si>
-    <t>-9.2 </t>
-  </si>
-  <si>
-    <t>-9.0 </t>
-  </si>
-  <si>
-    <t>-8.8 </t>
-  </si>
-  <si>
-    <t>-8.5 </t>
-  </si>
-  <si>
-    <t>-8.2 </t>
-  </si>
-  <si>
-    <t>-8.0 </t>
-  </si>
-  <si>
-    <t>-7.8 </t>
-  </si>
-  <si>
-    <t>-7.5 </t>
-  </si>
-  <si>
-    <t>-7.2 </t>
-  </si>
-  <si>
-    <t>-7.0 </t>
-  </si>
-  <si>
-    <t>-6.8 </t>
-  </si>
-  <si>
-    <t>-6.5 </t>
-  </si>
-  <si>
-    <t>-6.2 </t>
-  </si>
-  <si>
-    <t>-6.0 </t>
-  </si>
-  <si>
-    <t>-5.8 </t>
-  </si>
-  <si>
-    <t>-5.5 </t>
-  </si>
-  <si>
-    <t>-5.2 </t>
-  </si>
-  <si>
-    <t>-5.0 </t>
-  </si>
-  <si>
-    <t>-4.8 </t>
-  </si>
-  <si>
-    <t>-4.5 </t>
-  </si>
-  <si>
-    <t>-4.2 </t>
-  </si>
-  <si>
-    <t>-4.0 </t>
-  </si>
-  <si>
-    <t>-3.8 </t>
-  </si>
-  <si>
-    <t>-3.5 </t>
-  </si>
-  <si>
-    <t>-3.2 </t>
-  </si>
-  <si>
-    <t>-3.0 </t>
-  </si>
-  <si>
-    <t>-2.8 </t>
-  </si>
-  <si>
-    <t>-2.5 </t>
-  </si>
-  <si>
-    <t>-2.2 </t>
-  </si>
-  <si>
-    <t>-2.0 </t>
-  </si>
-  <si>
-    <t>-1.8 </t>
-  </si>
-  <si>
-    <t>-1.5 </t>
-  </si>
-  <si>
-    <t>-1.2 </t>
-  </si>
-  <si>
-    <t>-1.0 </t>
-  </si>
-  <si>
-    <t>-0.8 </t>
-  </si>
-  <si>
-    <t>-0.5 </t>
-  </si>
-  <si>
-    <t>9.8 </t>
-  </si>
-  <si>
-    <t>10.0 </t>
-  </si>
-  <si>
-    <t>10.2 </t>
-  </si>
-  <si>
-    <t>10.5 </t>
-  </si>
-  <si>
-    <t>10.8 </t>
-  </si>
-  <si>
-    <t>11.0 </t>
-  </si>
-  <si>
-    <t>11.2 </t>
-  </si>
-  <si>
-    <t>11.5 </t>
-  </si>
-  <si>
-    <t>11.8 </t>
-  </si>
-  <si>
-    <t>12.0 </t>
-  </si>
-  <si>
-    <t>12.2 </t>
-  </si>
-  <si>
-    <t>12.5 </t>
-  </si>
-  <si>
-    <t>12.8 </t>
-  </si>
-  <si>
-    <t>13.0 </t>
-  </si>
-  <si>
-    <t>13.2 </t>
-  </si>
-  <si>
-    <t>13.5 </t>
-  </si>
-  <si>
-    <t>13.8 </t>
-  </si>
-  <si>
-    <t>14.0 </t>
-  </si>
-  <si>
-    <t>14.2 </t>
-  </si>
-  <si>
-    <t>14.5 </t>
-  </si>
-  <si>
-    <t>14.8 </t>
-  </si>
-  <si>
-    <t>15.0 </t>
-  </si>
-  <si>
-    <t>15.2 </t>
-  </si>
-  <si>
-    <t>15.5 </t>
-  </si>
-  <si>
-    <t>15.8 </t>
-  </si>
-  <si>
-    <t>16.0 </t>
-  </si>
-  <si>
-    <t>16.2 </t>
-  </si>
-  <si>
-    <t>16.5 </t>
-  </si>
-  <si>
-    <t>16.8 </t>
-  </si>
-  <si>
-    <t>17.0 </t>
-  </si>
-  <si>
-    <t>17.2 </t>
-  </si>
-  <si>
-    <t>17.5 </t>
-  </si>
-  <si>
-    <t>17.8 </t>
-  </si>
-  <si>
-    <t>18.0 </t>
-  </si>
-  <si>
-    <t>18.2 </t>
-  </si>
-  <si>
-    <t>18.5 </t>
-  </si>
-  <si>
-    <t>18.8 </t>
-  </si>
-  <si>
-    <t>19.0 </t>
-  </si>
-  <si>
-    <t>19.2 </t>
-  </si>
-  <si>
-    <t>19.5 </t>
-  </si>
-  <si>
-    <t>19.8 </t>
-  </si>
-  <si>
-    <t>20.0 </t>
-  </si>
-  <si>
-    <t>20.2 </t>
-  </si>
-  <si>
-    <t>20.5 </t>
-  </si>
-  <si>
-    <t>20.8 </t>
-  </si>
-  <si>
-    <t>21.0 </t>
-  </si>
-  <si>
-    <t>21.2 </t>
-  </si>
-  <si>
-    <t>21.5 </t>
-  </si>
-  <si>
-    <t>21.8 </t>
-  </si>
-  <si>
-    <t>22.0 </t>
-  </si>
-  <si>
-    <t>22.2 </t>
-  </si>
-  <si>
-    <t>22.5 </t>
-  </si>
-  <si>
-    <t>22.8 </t>
-  </si>
-  <si>
-    <t>23.0 </t>
-  </si>
-  <si>
-    <t>23.2 </t>
-  </si>
-  <si>
-    <t>23.5 </t>
-  </si>
-  <si>
-    <t>23.8 </t>
-  </si>
-  <si>
-    <t>24.0 </t>
-  </si>
-  <si>
-    <t>24.2 </t>
-  </si>
-  <si>
-    <t>24.5 </t>
-  </si>
-  <si>
-    <t>24.8 </t>
-  </si>
-  <si>
-    <t>25.0 </t>
-  </si>
-  <si>
-    <t>25.2 </t>
-  </si>
-  <si>
-    <t>25.5 </t>
-  </si>
-  <si>
-    <t>25.8 </t>
-  </si>
-  <si>
-    <t>26.0 </t>
-  </si>
-  <si>
-    <t>26.2 </t>
-  </si>
-  <si>
-    <t>26.5 </t>
-  </si>
-  <si>
-    <t>26.8 </t>
-  </si>
-  <si>
-    <t>27.0 </t>
-  </si>
-  <si>
-    <t>27.2 </t>
-  </si>
-  <si>
-    <t>27.5 </t>
-  </si>
-  <si>
-    <t>27.8 </t>
-  </si>
-  <si>
-    <t>28.0 </t>
-  </si>
-  <si>
-    <t>28.2 </t>
-  </si>
-  <si>
-    <t>28.5 </t>
-  </si>
-  <si>
-    <t>28.8 </t>
-  </si>
-  <si>
-    <t>29.0 </t>
-  </si>
-  <si>
-    <t>29.2 </t>
-  </si>
-  <si>
-    <t>29.5 </t>
-  </si>
-  <si>
-    <t>29.8 </t>
-  </si>
-  <si>
-    <t>30.0 </t>
-  </si>
-  <si>
-    <t>30.2 </t>
-  </si>
-  <si>
-    <t>30.5 </t>
-  </si>
-  <si>
-    <t>30.8 </t>
-  </si>
-  <si>
-    <t>31.0 </t>
-  </si>
-  <si>
-    <t>31.2 </t>
-  </si>
-  <si>
-    <t>31.5 </t>
-  </si>
-  <si>
-    <t>31.8 </t>
-  </si>
-  <si>
-    <t>32.0 </t>
-  </si>
-  <si>
-    <t>32.2 </t>
-  </si>
-  <si>
-    <t>32.5 </t>
-  </si>
-  <si>
-    <t>32.8 </t>
-  </si>
-  <si>
-    <t>33.0 </t>
-  </si>
-  <si>
-    <t>33.2 </t>
-  </si>
-  <si>
-    <t>33.5 </t>
-  </si>
-  <si>
-    <t>33.8 </t>
-  </si>
-  <si>
-    <t>34.0 </t>
-  </si>
-  <si>
-    <t>34.2 </t>
-  </si>
-  <si>
-    <t>34.5 </t>
-  </si>
-  <si>
-    <t>Ca++</t>
   </si>
 </sst>
 </file>
@@ -506,12 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,7 +675,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>Ca++ titration curve</a:t>
             </a:r>
           </a:p>
@@ -1142,7 +725,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ca++</c:v>
+                  <c:v>occ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1172,105 +755,106 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet2!$A$2:$A$342</c:f>
-              <c:strCache>
-                <c:ptCount val="340"/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="341"/>
                 <c:pt idx="0">
                   <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-39.8</c:v>
+                  <c:v>-39.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-39.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-39.2</c:v>
+                  <c:v>-39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-38.8</c:v>
+                  <c:v>-38.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-38.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-38.2</c:v>
+                  <c:v>-38.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-37.8</c:v>
+                  <c:v>-37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-37.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-37.2</c:v>
+                  <c:v>-37.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-36.8</c:v>
+                  <c:v>-36.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-36.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-36.2</c:v>
+                  <c:v>-36.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-35.8</c:v>
+                  <c:v>-35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-35.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-35.2</c:v>
+                  <c:v>-35.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-34.8</c:v>
+                  <c:v>-34.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-34.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-34.2</c:v>
+                  <c:v>-34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-33.8</c:v>
+                  <c:v>-33.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-33.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-33.2</c:v>
+                  <c:v>-33.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-33</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-32.8</c:v>
+                  <c:v>-32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-32.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-32.2</c:v>
+                  <c:v>-32.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-32</c:v>
@@ -1534,670 +1118,550 @@
                   <c:v>-10.5</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-10.2</c:v>
+                  <c:v>-10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-10.0 </c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-9.8 </c:v>
+                  <c:v>-9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-9.5 </c:v>
+                  <c:v>-9.5</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-9.2 </c:v>
+                  <c:v>-9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-9.0 </c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-8.8 </c:v>
+                  <c:v>-8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-8.5 </c:v>
+                  <c:v>-8.5</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-8.2 </c:v>
+                  <c:v>-8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-8.0 </c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-7.8 </c:v>
+                  <c:v>-7.8</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-7.5 </c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-7.2 </c:v>
+                  <c:v>-7.2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-7.0 </c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-6.8 </c:v>
+                  <c:v>-6.8</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-6.5 </c:v>
+                  <c:v>-6.5</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-6.2 </c:v>
+                  <c:v>-6.2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-6.0 </c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-5.8 </c:v>
+                  <c:v>-5.8</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-5.5 </c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-5.2 </c:v>
+                  <c:v>-5.2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-5.0 </c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-4.8 </c:v>
+                  <c:v>-4.8</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-4.5 </c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-4.2 </c:v>
+                  <c:v>-4.2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.0 </c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-3.8 </c:v>
+                  <c:v>-3.8</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-3.5 </c:v>
+                  <c:v>-3.5</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-3.2 </c:v>
+                  <c:v>-3.2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-3.0 </c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-2.8 </c:v>
+                  <c:v>-2.8</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-2.5 </c:v>
+                  <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-2.2 </c:v>
+                  <c:v>-2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-2.0 </c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-1.8 </c:v>
+                  <c:v>-1.8</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-1.5 </c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-1.2 </c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-1.0 </c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.8 </c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.5 </c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v> </c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v> </c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v> </c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.5</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v> </c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.8</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v> </c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v> </c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.2</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v> </c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.5</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v> </c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.8</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v> </c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v> </c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.2</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v> </c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.5</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v> </c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.8</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v> </c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v> </c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.2</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v> </c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.5</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v> </c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.8</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v> </c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v> </c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4.2</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v> </c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4.5</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v> </c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4.8</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v> </c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v> </c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5.2</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v> </c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5.5</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v> </c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5.8</c:v>
+                  <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v> </c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>6</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v> </c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>6.2</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v> </c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>6.5</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v> </c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>6.8</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v> </c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>7</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v> </c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>7.2</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v> </c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>7.5</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v> </c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>7.8</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v> </c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>8</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v> </c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>8.2</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v> </c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>8.5</c:v>
+                  <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v> </c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>8.8</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v> </c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>9</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v> </c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>9.2</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v> </c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.5</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v> </c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9.8 </c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>10.0 </c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>10.2 </c:v>
+                  <c:v>20.2</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>10.5 </c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>10.8 </c:v>
+                  <c:v>20.8</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>11.0 </c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>11.2 </c:v>
+                  <c:v>21.2</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>11.5 </c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>11.8 </c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>12.0 </c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>12.2 </c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>12.5 </c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>12.8 </c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>13.0 </c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>13.2 </c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>13.5 </c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>13.8 </c:v>
+                  <c:v>23.8</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>14.0 </c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>14.2 </c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>14.5 </c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>14.8 </c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>15.0 </c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>15.2 </c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>15.5 </c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>15.8 </c:v>
+                  <c:v>25.8</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>16.0 </c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>16.2 </c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>16.5 </c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>16.8 </c:v>
+                  <c:v>26.8</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>17.0 </c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>17.2 </c:v>
+                  <c:v>27.2</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>17.5 </c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>17.8 </c:v>
+                  <c:v>27.8</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>18.0 </c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>18.2 </c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>18.5 </c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>18.8 </c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>19.0 </c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>19.2 </c:v>
+                  <c:v>29.2</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>19.5 </c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>19.8 </c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>20.0 </c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>20.2 </c:v>
+                  <c:v>30.2</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>20.5 </c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>20.8 </c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>21.0 </c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>21.2 </c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>21.5 </c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>21.8 </c:v>
+                  <c:v>31.8</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>22.0 </c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>22.2 </c:v>
+                  <c:v>32.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>22.5 </c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>22.8 </c:v>
+                  <c:v>32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>23.0 </c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>23.2 </c:v>
+                  <c:v>33.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>23.5 </c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>23.8 </c:v>
+                  <c:v>33.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>24.0 </c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>24.2 </c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>24.5 </c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>24.8 </c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>25.0 </c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>25.2 </c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>25.5 </c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>25.8 </c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>26.0 </c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>26.2 </c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>26.5 </c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>26.8 </c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>27.0 </c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>27.2 </c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>27.5 </c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>27.8 </c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>28.0 </c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>28.2 </c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>28.5 </c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>28.8 </c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>29.0 </c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>29.2 </c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>29.5 </c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>29.8 </c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>30.0 </c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>30.2 </c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>30.5 </c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>30.8 </c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>31.0 </c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>31.2 </c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>31.5 </c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>31.8 </c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>32.0 </c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>32.2 </c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>32.5 </c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>32.8 </c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>33.0 </c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>33.2 </c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>33.5 </c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>33.8 </c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>34.0 </c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>34.2 </c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>34.5 </c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>34.8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3111,7 +2575,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D72-0440-B17C-C3A1ADB031C9}"/>
+              <c16:uniqueId val="{00000000-0CED-3149-9F54-707428BD2C52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3123,11 +2587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="263427471"/>
-        <c:axId val="321565519"/>
+        <c:axId val="228683775"/>
+        <c:axId val="263429951"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="263427471"/>
+        <c:axId val="228683775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3147,67 +2611,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="321565519"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="321565519"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1"/>
+                  <a:t>energy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3245,7 +2704,125 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263427471"/>
+        <c:crossAx val="263429951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="263429951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1"/>
+                  <a:t>occupancy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228683775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4446,22 +4023,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28CDF3E-B921-C44B-8A27-54ADF2DD9828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F78134-6A61-A34C-903C-AF511BF61AE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5290,7 +4867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795558C-6188-874E-9514-3B33A4BF11FB}">
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
@@ -5303,2608 +4880,2531 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>-40</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>-39.799999999999997</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>-39.5</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>-39.200000000000003</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>-39</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>-38.799999999999997</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>-38.5</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>-38.200000000000003</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>-38</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>-37.799999999999997</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>-37.5</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>-37.200000000000003</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>-37</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>-36.799999999999997</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>-36.5</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>-36.200000000000003</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>-36</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>-35.799999999999997</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>-35.5</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>-35.200000000000003</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>-35</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>-34.799999999999997</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>-34.5</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>-34.200000000000003</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>-34</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>-33.799999999999997</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>-33.5</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>-33.200000000000003</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>-33</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>-32.799999999999997</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>-32.5</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>-32.200000000000003</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>-32</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>-31.8</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>-31.5</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>-31.2</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>-31</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>-30.8</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>-30.5</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>-30.2</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>-30</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>-29.8</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>-29.5</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>-29.2</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>-29</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>-28.8</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>-28.5</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>-28.2</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>-28</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>-27.8</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>-27.5</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>-27.2</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>-27</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>-26.8</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>-26.5</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>-26.2</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>-26</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>-25.8</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>-25.5</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>-25.2</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>-25</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>-24.8</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>-24.5</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>-24.2</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>-24</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>-23.8</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>-23.5</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>-23.2</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>-23</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>-22.8</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>-22.5</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>-22.2</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>-22</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>-21.8</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>-21.5</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>-21.2</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>-21</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>-20.8</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>-20.5</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>-20.2</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>-20</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>-19.8</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>-19.5</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>-19.2</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>-19</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>-18.8</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>-18.5</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>-18.2</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>-18</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>-17.8</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>-17.5</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>-17.2</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>-17</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>-16.8</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>-16.5</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>-16.2</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>-16</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>-15.8</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>-15.5</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>-15.2</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>-15</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>-14.8</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>-14.5</v>
       </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>-14.2</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>-14</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>-13.8</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>-13.5</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>-13.2</v>
       </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>-13</v>
       </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>-12.8</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>-12.5</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>-12.2</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>-12</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>-11.8</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>-11.5</v>
       </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>-11.2</v>
       </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>-11</v>
       </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>-10.8</v>
       </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>-10.5</v>
       </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>-10.199999999999999</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>-10</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>-9.5</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>-9</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>-8.5</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>-8</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>-7.8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>-7.5</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>-7.2</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>-7</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>-6.8</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>-6.2</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>-5.5</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>-5.2</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>-4.8</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>-4.2</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>-3.8</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>-3.2</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B150" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>-2.8</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="B156" s="1">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="B157" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>0</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B165" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+      <c r="B166" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B167" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B168" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>2</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B171" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B172" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="B173" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>3</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>4</v>
       </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="B178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>5</v>
       </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="B182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>6</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>7</v>
       </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="B191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="B193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>8</v>
       </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="B194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="B196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>9</v>
       </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="B198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>10</v>
       </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="B202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="B205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>11</v>
       </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="B206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="B208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>12</v>
       </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="B212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="B213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>13</v>
       </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="B214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="B215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="B216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>14</v>
       </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="B218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="B219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>15</v>
       </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="B222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="B223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="B224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="B225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>16</v>
       </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="B226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="B227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="B228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="B229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>17</v>
       </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="B230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>18</v>
       </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="B234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="B236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>19</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="B238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="B240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="B241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>20</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="B242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="B243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="B244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="B245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>21</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="B246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="B247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="B248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="B249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>22</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="B250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="B251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="B252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="B253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>23</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="B254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="B255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="B256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="B257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>24</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="B258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>25</v>
       </c>
-      <c r="B143">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="B262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="B263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="B264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="B265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>26</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="B266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="B267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="B268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="B269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>27</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="B270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="B271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="B273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>28</v>
       </c>
-      <c r="B146">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="B274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="B275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="B276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="B277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
         <v>29</v>
       </c>
-      <c r="B147">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="B278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="B279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="B280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="B281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
         <v>30</v>
       </c>
-      <c r="B148">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="B282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="B283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="B284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="B285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
         <v>31</v>
       </c>
-      <c r="B149">
-        <v>0.99199999999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="B286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="B287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="B288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="B289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
         <v>32</v>
       </c>
-      <c r="B150">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="B290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="B292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="B293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>33</v>
       </c>
-      <c r="B151">
-        <v>0.97799999999999998</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="B294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="B295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="B296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="B297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
         <v>34</v>
       </c>
-      <c r="B152">
-        <v>0.96699999999999997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>35</v>
-      </c>
-      <c r="B153">
-        <v>0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>36</v>
-      </c>
-      <c r="B154">
-        <v>0.92100000000000004</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>37</v>
-      </c>
-      <c r="B155">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>38</v>
-      </c>
-      <c r="B156">
-        <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>39</v>
-      </c>
-      <c r="B157">
-        <v>0.79500000000000004</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>40</v>
-      </c>
-      <c r="B158">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>41</v>
-      </c>
-      <c r="B159">
-        <v>0.61499999999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>42</v>
-      </c>
-      <c r="B160">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>-0.2</v>
-      </c>
-      <c r="B161">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>3</v>
-      </c>
-      <c r="B162">
-        <v>0.28899999999999998</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>0</v>
-      </c>
-      <c r="B163">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>3</v>
-      </c>
-      <c r="B164">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>0.2</v>
-      </c>
-      <c r="B165">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>3</v>
-      </c>
-      <c r="B166">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>0.5</v>
-      </c>
-      <c r="B167">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>3</v>
-      </c>
-      <c r="B168">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>0.8</v>
-      </c>
-      <c r="B169">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>3</v>
-      </c>
-      <c r="B170">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>3</v>
-      </c>
-      <c r="B172">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>1.2</v>
-      </c>
-      <c r="B173">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>3</v>
-      </c>
-      <c r="B174">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>1.5</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>3</v>
-      </c>
-      <c r="B176">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>1.8</v>
-      </c>
-      <c r="B177">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>3</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>2</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>3</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>3</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>2.5</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>3</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>2.8</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>3</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>3</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>3</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>3.2</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>3</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>3.5</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>3</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>3.8</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>3</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>4</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>3</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>4.2</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>3</v>
-      </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>4.5</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>3</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>4.8</v>
-      </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>3</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>5</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>3</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>5.2</v>
-      </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>3</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>5.5</v>
-      </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>3</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>5.8</v>
-      </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>3</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>6</v>
-      </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>3</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>6.2</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>3</v>
-      </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>6.5</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>3</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>6.8</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>3</v>
-      </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>7</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>3</v>
-      </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>7.2</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>3</v>
-      </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>7.5</v>
-      </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>3</v>
-      </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>7.8</v>
-      </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>3</v>
-      </c>
-      <c r="B226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>8</v>
-      </c>
-      <c r="B227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>3</v>
-      </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>3</v>
-      </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <v>8.5</v>
-      </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>3</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>3</v>
-      </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <v>9</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>3</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>3</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>9.5</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>3</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>43</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>44</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>45</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>46</v>
-      </c>
-      <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>47</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>48</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>49</v>
-      </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>50</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>51</v>
-      </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>52</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>53</v>
-      </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>54</v>
-      </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>55</v>
-      </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>56</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>57</v>
-      </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>58</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>59</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>60</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>61</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>62</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>63</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>64</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>65</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>66</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>67</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>68</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>69</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>70</v>
-      </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>71</v>
-      </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>72</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>73</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>74</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>75</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>76</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>77</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>78</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>79</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>80</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>81</v>
-      </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>82</v>
-      </c>
-      <c r="B280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>83</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>84</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>85</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>86</v>
-      </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>87</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>88</v>
-      </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>89</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>90</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>91</v>
-      </c>
-      <c r="B289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>92</v>
-      </c>
-      <c r="B290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>93</v>
-      </c>
-      <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>94</v>
-      </c>
-      <c r="B292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>95</v>
-      </c>
-      <c r="B293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>96</v>
-      </c>
-      <c r="B294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>97</v>
-      </c>
-      <c r="B295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>98</v>
-      </c>
-      <c r="B296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>99</v>
-      </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>100</v>
-      </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>101</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>102</v>
-      </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>103</v>
-      </c>
-      <c r="B301">
+      <c r="B298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="B299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="B300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="B301" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>104</v>
-      </c>
+      <c r="A302" s="3"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>105</v>
-      </c>
+      <c r="A303" s="3"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>106</v>
-      </c>
+      <c r="A304" s="3"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>107</v>
-      </c>
+      <c r="A305" s="3"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>108</v>
-      </c>
+      <c r="A306" s="3"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>109</v>
-      </c>
+      <c r="A307" s="3"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>110</v>
-      </c>
+      <c r="A308" s="3"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>111</v>
-      </c>
+      <c r="A309" s="3"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>112</v>
-      </c>
+      <c r="A310" s="3"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>113</v>
-      </c>
+      <c r="A311" s="3"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>114</v>
-      </c>
+      <c r="A312" s="3"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>115</v>
-      </c>
+      <c r="A313" s="3"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>116</v>
-      </c>
+      <c r="A314" s="3"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>117</v>
-      </c>
+      <c r="A315" s="3"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>118</v>
-      </c>
+      <c r="A316" s="3"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>119</v>
-      </c>
+      <c r="A317" s="3"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>120</v>
-      </c>
+      <c r="A318" s="3"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>121</v>
-      </c>
+      <c r="A319" s="3"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>122</v>
-      </c>
+      <c r="A320" s="3"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>123</v>
-      </c>
+      <c r="A321" s="3"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>124</v>
-      </c>
+      <c r="A322" s="3"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>125</v>
-      </c>
+      <c r="A323" s="3"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>126</v>
-      </c>
+      <c r="A324" s="3"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>127</v>
-      </c>
+      <c r="A325" s="3"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>128</v>
-      </c>
+      <c r="A326" s="3"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>129</v>
-      </c>
+      <c r="A327" s="3"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>130</v>
-      </c>
+      <c r="A328" s="3"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>131</v>
-      </c>
+      <c r="A329" s="3"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>132</v>
-      </c>
+      <c r="A330" s="3"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>133</v>
-      </c>
+      <c r="A331" s="3"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>134</v>
-      </c>
+      <c r="A332" s="3"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>135</v>
-      </c>
+      <c r="A333" s="3"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>136</v>
-      </c>
+      <c r="A334" s="3"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>137</v>
-      </c>
+      <c r="A335" s="3"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>138</v>
-      </c>
+      <c r="A336" s="3"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>139</v>
-      </c>
+      <c r="A337" s="3"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>140</v>
-      </c>
+      <c r="A338" s="3"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>141</v>
-      </c>
+      <c r="A339" s="3"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>142</v>
-      </c>
+      <c r="A340" s="3"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341">
-        <v>34.799999999999997</v>
-      </c>
+      <c r="A341" s="3"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
